--- a/data/rates.xlsx
+++ b/data/rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TaxiApp GitHub\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A92B7F7-D39C-4D94-91B3-131B671FDED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6726C5CA-0CF4-4376-B484-3585B1F07C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{42294558-E87A-4CB8-9A74-0964A165C2E5}"/>
   </bookViews>

--- a/data/rates.xlsx
+++ b/data/rates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TaxiApp GitHub\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TaxiApp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6726C5CA-0CF4-4376-B484-3585B1F07C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52FB61EA-6D51-4ED3-BCEA-7D0E76AFC437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{42294558-E87A-4CB8-9A74-0964A165C2E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{42294558-E87A-4CB8-9A74-0964A165C2E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -529,7 +529,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G30"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,145 +568,667 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
+      <c r="B2" s="3">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
+      <c r="B3" s="3">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
+      <c r="B4" s="3">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
+      <c r="B5" s="3">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
+      <c r="B6" s="3">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
+      <c r="B8" s="3">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
+      <c r="B9" s="3">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
+      <c r="B10" s="3">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
+      <c r="B11" s="3">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
+      <c r="B13" s="3">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
+      <c r="B15" s="3">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3">
+        <v>10</v>
+      </c>
+      <c r="F16" s="3">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3">
+        <v>10</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3">
+        <v>10</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3">
+        <v>10</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3">
+        <v>10</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3">
+        <v>10</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3</v>
+      </c>
+      <c r="G23" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>10</v>
+      </c>
+      <c r="E24" s="3">
+        <v>10</v>
+      </c>
+      <c r="F24" s="3">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <v>12</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3">
+        <v>10</v>
+      </c>
+      <c r="F25" s="3">
+        <v>3</v>
+      </c>
+      <c r="G25" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3">
+        <v>10</v>
+      </c>
+      <c r="F26" s="3">
+        <v>3</v>
+      </c>
+      <c r="G26" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
+        <v>16</v>
+      </c>
+      <c r="C27" s="3">
+        <v>5</v>
+      </c>
+      <c r="D27" s="3">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3">
+        <v>10</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3</v>
+      </c>
+      <c r="G27" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
+        <v>12</v>
+      </c>
+      <c r="C28" s="3">
+        <v>5</v>
+      </c>
+      <c r="D28" s="3">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3">
+        <v>10</v>
+      </c>
+      <c r="F28" s="3">
+        <v>3</v>
+      </c>
+      <c r="G28" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3">
+        <v>10</v>
+      </c>
+      <c r="E29" s="3">
+        <v>10</v>
+      </c>
+      <c r="F29" s="3">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
+      </c>
+      <c r="B30" s="3">
+        <v>14</v>
+      </c>
+      <c r="C30" s="3">
+        <v>5</v>
+      </c>
+      <c r="D30" s="3">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3">
+        <v>10</v>
+      </c>
+      <c r="F30" s="3">
+        <v>3</v>
+      </c>
+      <c r="G30" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/rates.xlsx
+++ b/data/rates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TaxiApp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TaxiApp GitHub\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52FB61EA-6D51-4ED3-BCEA-7D0E76AFC437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93095684-726D-49BB-8D74-F364EA597A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{42294558-E87A-4CB8-9A74-0964A165C2E5}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{42294558-E87A-4CB8-9A74-0964A165C2E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -529,7 +529,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,667 +568,145 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3">
-        <v>3</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3">
-        <v>3</v>
-      </c>
-      <c r="G3" s="3">
-        <v>3</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="3">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3">
-        <v>3</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="3">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3">
-        <v>3</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3">
-        <v>3</v>
-      </c>
-      <c r="G6" s="3">
-        <v>3</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3">
-        <v>3</v>
-      </c>
-      <c r="G7" s="3">
-        <v>3</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3">
-        <v>3</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="3">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3">
-        <v>3</v>
-      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3">
-        <v>5</v>
-      </c>
-      <c r="D10" s="3">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3">
-        <v>3</v>
-      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="3">
-        <v>12</v>
-      </c>
-      <c r="C11" s="3">
-        <v>5</v>
-      </c>
-      <c r="D11" s="3">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3">
-        <v>10</v>
-      </c>
-      <c r="F11" s="3">
-        <v>3</v>
-      </c>
-      <c r="G11" s="3">
-        <v>3</v>
-      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="3">
-        <v>4</v>
-      </c>
-      <c r="C12" s="3">
-        <v>5</v>
-      </c>
-      <c r="D12" s="3">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3">
-        <v>3</v>
-      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="3">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3">
-        <v>10</v>
-      </c>
-      <c r="E13" s="3">
-        <v>10</v>
-      </c>
-      <c r="F13" s="3">
-        <v>3</v>
-      </c>
-      <c r="G13" s="3">
-        <v>3</v>
-      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3">
-        <v>5</v>
-      </c>
-      <c r="D14" s="3">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>3</v>
-      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="3">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3">
-        <v>5</v>
-      </c>
-      <c r="D15" s="3">
-        <v>10</v>
-      </c>
-      <c r="E15" s="3">
-        <v>10</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3</v>
-      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="3">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3">
-        <v>5</v>
-      </c>
-      <c r="D16" s="3">
-        <v>10</v>
-      </c>
-      <c r="E16" s="3">
-        <v>10</v>
-      </c>
-      <c r="F16" s="3">
-        <v>3</v>
-      </c>
-      <c r="G16" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3">
-        <v>5</v>
-      </c>
-      <c r="D17" s="3">
-        <v>10</v>
-      </c>
-      <c r="E17" s="3">
-        <v>10</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="3">
-        <v>3</v>
-      </c>
-      <c r="C18" s="3">
-        <v>3</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="3">
-        <v>15</v>
-      </c>
-      <c r="C19" s="3">
-        <v>5</v>
-      </c>
-      <c r="D19" s="3">
-        <v>10</v>
-      </c>
-      <c r="E19" s="3">
-        <v>10</v>
-      </c>
-      <c r="F19" s="3">
-        <v>3</v>
-      </c>
-      <c r="G19" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="3">
-        <v>12</v>
-      </c>
-      <c r="C20" s="3">
-        <v>5</v>
-      </c>
-      <c r="D20" s="3">
-        <v>10</v>
-      </c>
-      <c r="E20" s="3">
-        <v>10</v>
-      </c>
-      <c r="F20" s="3">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="3">
-        <v>16</v>
-      </c>
-      <c r="C21" s="3">
-        <v>5</v>
-      </c>
-      <c r="D21" s="3">
-        <v>10</v>
-      </c>
-      <c r="E21" s="3">
-        <v>10</v>
-      </c>
-      <c r="F21" s="3">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="3">
-        <v>12</v>
-      </c>
-      <c r="C22" s="3">
-        <v>5</v>
-      </c>
-      <c r="D22" s="3">
-        <v>10</v>
-      </c>
-      <c r="E22" s="3">
-        <v>10</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="3">
-        <v>12</v>
-      </c>
-      <c r="C23" s="3">
-        <v>5</v>
-      </c>
-      <c r="D23" s="3">
-        <v>10</v>
-      </c>
-      <c r="E23" s="3">
-        <v>10</v>
-      </c>
-      <c r="F23" s="3">
-        <v>3</v>
-      </c>
-      <c r="G23" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="3">
-        <v>12</v>
-      </c>
-      <c r="C24" s="3">
-        <v>5</v>
-      </c>
-      <c r="D24" s="3">
-        <v>10</v>
-      </c>
-      <c r="E24" s="3">
-        <v>10</v>
-      </c>
-      <c r="F24" s="3">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="3">
-        <v>12</v>
-      </c>
-      <c r="C25" s="3">
-        <v>5</v>
-      </c>
-      <c r="D25" s="3">
-        <v>10</v>
-      </c>
-      <c r="E25" s="3">
-        <v>10</v>
-      </c>
-      <c r="F25" s="3">
-        <v>3</v>
-      </c>
-      <c r="G25" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="3">
-        <v>12</v>
-      </c>
-      <c r="C26" s="3">
-        <v>5</v>
-      </c>
-      <c r="D26" s="3">
-        <v>10</v>
-      </c>
-      <c r="E26" s="3">
-        <v>10</v>
-      </c>
-      <c r="F26" s="3">
-        <v>3</v>
-      </c>
-      <c r="G26" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="3">
-        <v>16</v>
-      </c>
-      <c r="C27" s="3">
-        <v>5</v>
-      </c>
-      <c r="D27" s="3">
-        <v>10</v>
-      </c>
-      <c r="E27" s="3">
-        <v>10</v>
-      </c>
-      <c r="F27" s="3">
-        <v>3</v>
-      </c>
-      <c r="G27" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="3">
-        <v>12</v>
-      </c>
-      <c r="C28" s="3">
-        <v>5</v>
-      </c>
-      <c r="D28" s="3">
-        <v>10</v>
-      </c>
-      <c r="E28" s="3">
-        <v>10</v>
-      </c>
-      <c r="F28" s="3">
-        <v>3</v>
-      </c>
-      <c r="G28" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="3">
-        <v>12</v>
-      </c>
-      <c r="C29" s="3">
-        <v>5</v>
-      </c>
-      <c r="D29" s="3">
-        <v>10</v>
-      </c>
-      <c r="E29" s="3">
-        <v>10</v>
-      </c>
-      <c r="F29" s="3">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
-      </c>
-      <c r="B30" s="3">
-        <v>14</v>
-      </c>
-      <c r="C30" s="3">
-        <v>5</v>
-      </c>
-      <c r="D30" s="3">
-        <v>10</v>
-      </c>
-      <c r="E30" s="3">
-        <v>10</v>
-      </c>
-      <c r="F30" s="3">
-        <v>3</v>
-      </c>
-      <c r="G30" s="3">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
